--- a/biology/Zoologie/Faune_punique/Faune_punique.xlsx
+++ b/biology/Zoologie/Faune_punique/Faune_punique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hipparchia powelli
 Le Faune punique (Hipparchia powelli) est un lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Satyrinae et au genre Hipparchia.
@@ -512,12 +524,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été nommé Hipparchia powelli par Charles Oberthür en 1910.
-Synonymes : Satyrus powelli Oberthür, 1910;Hipparchia hansii powelli ; Neohipparchia powelli  [1].
-Position taxonomique
-Sa position comme espèce distincte de Hipparchia hansii est encore en cours d'étude, les genitalia étant très proches[2].
+Synonymes : Satyrus powelli Oberthür, 1910;Hipparchia hansii powelli ; Neohipparchia powelli  .
 </t>
         </is>
       </c>
@@ -543,12 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Noms vernaculaires</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le Faune punique se nomme Powell's Grayling en anglais[3].
+          <t>Position taxonomique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa position comme espèce distincte de Hipparchia hansii est encore en cours d'étude, les genitalia étant très proches.
 </t>
         </is>
       </c>
@@ -574,13 +592,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Faune punique est de couleur ocre foncée, ocre plus clair pour la femelle, avec en bordure une frange entrecoupée et deux ocelles noirs aveugles ou très discrètement pupillés peu visibles aux antérieures et un très petit aux postérieures.
-Le revers est marbré d'ocre et de blanc, plus uniformément ocre clair chez la femelle, avec les nervures de couleur grisâtre bien visibles et les ocelles noirs cerclés d'ocre deux aux antérieures et un très petit aux postérieures.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Faune punique se nomme Powell's Grayling en anglais.
 </t>
         </is>
       </c>
@@ -606,15 +625,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Le Faune punique vole en une génération entre fin août et octobre[2].
-Plantes hôtes
-Sa plante hôte est Lygeum spartum[2],[1].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Faune punique est de couleur ocre foncée, ocre plus clair pour la femelle, avec en bordure une frange entrecoupée et deux ocelles noirs aveugles ou très discrètement pupillés peu visibles aux antérieures et un très petit aux postérieures.
+Le revers est marbré d'ocre et de blanc, plus uniformément ocre clair chez la femelle, avec les nervures de couleur grisâtre bien visibles et les ocelles noirs cerclés d'ocre deux aux antérieures et un très petit aux postérieures.
 </t>
         </is>
       </c>
@@ -640,15 +659,126 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Faune punique vole en une génération entre fin août et octobre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Faune_punique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_punique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa plante hôte est Lygeum spartum,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Faune_punique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_punique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le Faune  punique n'est présent que dans le centre et l'ouest de la Tunisie[2].
-Biotope
-Il réside dans des pentes rocheuses.
-Protection</t>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Faune  punique n'est présent que dans le centre et l'ouest de la Tunisie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Faune_punique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_punique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans des pentes rocheuses.
+</t>
         </is>
       </c>
     </row>
